--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H2">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I2">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J2">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N2">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O2">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P2">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q2">
-        <v>10.55202313729465</v>
+        <v>14.91042193692278</v>
       </c>
       <c r="R2">
-        <v>10.55202313729465</v>
+        <v>134.193797432305</v>
       </c>
       <c r="S2">
-        <v>0.005925158869861295</v>
+        <v>0.007304963303635284</v>
       </c>
       <c r="T2">
-        <v>0.005925158869861295</v>
+        <v>0.007304963303635286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H3">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I3">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J3">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N3">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O3">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P3">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q3">
-        <v>17.54682505214786</v>
+        <v>21.01855992700333</v>
       </c>
       <c r="R3">
-        <v>17.54682505214786</v>
+        <v>189.16703934303</v>
       </c>
       <c r="S3">
-        <v>0.009852871316039756</v>
+        <v>0.01029748249992891</v>
       </c>
       <c r="T3">
-        <v>0.009852871316039756</v>
+        <v>0.01029748249992891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H4">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I4">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J4">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N4">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O4">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P4">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q4">
-        <v>70.44503511044414</v>
+        <v>89.58711835758113</v>
       </c>
       <c r="R4">
-        <v>70.44503511044414</v>
+        <v>806.2840652182301</v>
       </c>
       <c r="S4">
-        <v>0.03955620824475864</v>
+        <v>0.04389081776820749</v>
       </c>
       <c r="T4">
-        <v>0.03955620824475864</v>
+        <v>0.0438908177682075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H5">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I5">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J5">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N5">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O5">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P5">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q5">
-        <v>3.01163500048153</v>
+        <v>7.487865000910557</v>
       </c>
       <c r="R5">
-        <v>3.01163500048153</v>
+        <v>67.39078500819501</v>
       </c>
       <c r="S5">
-        <v>0.001691089528871414</v>
+        <v>0.003668479623556201</v>
       </c>
       <c r="T5">
-        <v>0.001691089528871414</v>
+        <v>0.003668479623556202</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H6">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I6">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J6">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N6">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O6">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P6">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q6">
-        <v>89.31794546072342</v>
+        <v>105.7209689247747</v>
       </c>
       <c r="R6">
-        <v>89.31794546072342</v>
+        <v>951.4887203229719</v>
       </c>
       <c r="S6">
-        <v>0.05015370132329678</v>
+        <v>0.05179516727878931</v>
       </c>
       <c r="T6">
-        <v>0.05015370132329678</v>
+        <v>0.05179516727878932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H7">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I7">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J7">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N7">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O7">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P7">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q7">
-        <v>148.5256753728472</v>
+        <v>149.030156912168</v>
       </c>
       <c r="R7">
-        <v>148.5256753728472</v>
+        <v>1341.271412209512</v>
       </c>
       <c r="S7">
-        <v>0.08339995197008178</v>
+        <v>0.0730133481120705</v>
       </c>
       <c r="T7">
-        <v>0.08339995197008178</v>
+        <v>0.07301334811207053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H8">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I8">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J8">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N8">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O8">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P8">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q8">
-        <v>596.2843070098268</v>
+        <v>635.2091842879546</v>
       </c>
       <c r="R8">
-        <v>596.2843070098268</v>
+        <v>5716.882658591592</v>
       </c>
       <c r="S8">
-        <v>0.3348248202897885</v>
+        <v>0.311203787591356</v>
       </c>
       <c r="T8">
-        <v>0.3348248202897885</v>
+        <v>0.311203787591356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H9">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I9">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J9">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N9">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O9">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P9">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q9">
-        <v>25.49208310299253</v>
+        <v>53.09201486202533</v>
       </c>
       <c r="R9">
-        <v>25.49208310299253</v>
+        <v>477.828133758228</v>
       </c>
       <c r="S9">
-        <v>0.0143142827061373</v>
+        <v>0.02601101577969133</v>
       </c>
       <c r="T9">
-        <v>0.0143142827061373</v>
+        <v>0.02601101577969133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H10">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I10">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J10">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N10">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O10">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P10">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q10">
-        <v>36.41196576225505</v>
+        <v>46.95293624512112</v>
       </c>
       <c r="R10">
-        <v>36.41196576225505</v>
+        <v>422.57642620609</v>
       </c>
       <c r="S10">
-        <v>0.02044600159592002</v>
+        <v>0.02300333804901857</v>
       </c>
       <c r="T10">
-        <v>0.02044600159592002</v>
+        <v>0.02300333804901857</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H11">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I11">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J11">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N11">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O11">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P11">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q11">
-        <v>60.54899470196703</v>
+        <v>66.18746997179333</v>
       </c>
       <c r="R11">
-        <v>60.54899470196703</v>
+        <v>595.68722974614</v>
       </c>
       <c r="S11">
-        <v>0.03399939597853506</v>
+        <v>0.03242678452359055</v>
       </c>
       <c r="T11">
-        <v>0.03399939597853506</v>
+        <v>0.03242678452359056</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H12">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I12">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J12">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N12">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O12">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P12">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q12">
-        <v>243.0853470645421</v>
+        <v>282.1099412493045</v>
       </c>
       <c r="R12">
-        <v>243.0853470645421</v>
+        <v>2538.98947124374</v>
       </c>
       <c r="S12">
-        <v>0.1364969808682637</v>
+        <v>0.1382122368592196</v>
       </c>
       <c r="T12">
-        <v>0.1364969808682637</v>
+        <v>0.1382122368592197</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H13">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I13">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J13">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N13">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O13">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P13">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q13">
-        <v>10.39227730067859</v>
+        <v>23.57929570921223</v>
       </c>
       <c r="R13">
-        <v>10.39227730067859</v>
+        <v>212.21366138291</v>
       </c>
       <c r="S13">
-        <v>0.00583545858694553</v>
+        <v>0.01155204665636098</v>
       </c>
       <c r="T13">
-        <v>0.00583545858694553</v>
+        <v>0.01155204665636098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H14">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I14">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J14">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N14">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O14">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P14">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q14">
-        <v>48.75905557989959</v>
+        <v>61.23738952877723</v>
       </c>
       <c r="R14">
-        <v>48.75905557989959</v>
+        <v>551.136505758995</v>
       </c>
       <c r="S14">
-        <v>0.02737912406903347</v>
+        <v>0.03000162471662817</v>
       </c>
       <c r="T14">
-        <v>0.02737912406903347</v>
+        <v>0.03000162471662817</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H15">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I15">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J15">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N15">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O15">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P15">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q15">
-        <v>81.08081330342915</v>
+        <v>86.32362967519667</v>
       </c>
       <c r="R15">
-        <v>81.08081330342915</v>
+        <v>776.91266707677</v>
       </c>
       <c r="S15">
-        <v>0.04552839714901832</v>
+        <v>0.04229195858316906</v>
       </c>
       <c r="T15">
-        <v>0.04552839714901832</v>
+        <v>0.04229195858316907</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H16">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I16">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J16">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N16">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O16">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P16">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q16">
-        <v>325.5142011713552</v>
+        <v>367.9360172926189</v>
       </c>
       <c r="R16">
-        <v>325.5142011713552</v>
+        <v>3311.424155633571</v>
       </c>
       <c r="S16">
-        <v>0.1827823282077033</v>
+        <v>0.1802604323189931</v>
       </c>
       <c r="T16">
-        <v>0.1827823282077033</v>
+        <v>0.1802604323189931</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H17">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I17">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J17">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N17">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O17">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P17">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q17">
-        <v>13.91623923338915</v>
+        <v>30.75280550338945</v>
       </c>
       <c r="R17">
-        <v>13.91623923338915</v>
+        <v>276.775249530505</v>
       </c>
       <c r="S17">
-        <v>0.007814229295745058</v>
+        <v>0.01506651633578494</v>
       </c>
       <c r="T17">
-        <v>0.007814229295745058</v>
+        <v>0.01506651633578494</v>
       </c>
     </row>
   </sheetData>
